--- a/dist/Folha gerada.xlsx
+++ b/dist/Folha gerada.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="1" r:id="rId3" sheetId="1"/>
+    <sheet name="2" r:id="rId4" sheetId="2"/>
+    <sheet name="3" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="75">
   <si>
     <t>Colaborador</t>
   </si>
@@ -26,7 +28,7 @@
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>outubro/2020</t>
+    <t>fevereiro/2020</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -53,72 +55,72 @@
     <t>01</t>
   </si>
   <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>feriado</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>quinta</t>
   </si>
   <si>
-    <t>folga</t>
-  </si>
-  <si>
     <t>13:30 às 17:30</t>
   </si>
   <si>
     <t>18:00 às 21:30</t>
   </si>
   <si>
-    <t>02</t>
+    <t>07</t>
   </si>
   <si>
     <t>sexta</t>
   </si>
   <si>
-    <t>feriado</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>sábado</t>
-  </si>
-  <si>
-    <t>08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>13:30 às 18:00</t>
-  </si>
-  <si>
-    <t>18:030 às 21:30</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>terça</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>quarta</t>
-  </si>
-  <si>
-    <t>08:00 às 13:00</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -210,6 +212,33 @@
   </si>
   <si>
     <t>Assinatura direção</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>c08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
+    <t>c08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>13:30 às 18:30</t>
+  </si>
+  <si>
+    <t>MILENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>18:00 às 21:00</t>
+  </si>
+  <si>
+    <t>08:30 às 12:00</t>
   </si>
 </sst>
 </file>
@@ -575,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -696,13 +725,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -710,19 +739,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>20</v>
@@ -733,22 +762,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>2</v>
@@ -756,22 +785,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="C9" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E9" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>2</v>
@@ -779,19 +808,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="3">
         <v>32</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>2</v>
@@ -834,13 +863,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -857,13 +886,13 @@
         <v>23</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -874,16 +903,16 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>20</v>
@@ -897,19 +926,19 @@
         <v>39</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>2</v>
@@ -920,19 +949,19 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E16" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>2</v>
@@ -943,16 +972,16 @@
         <v>41</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>2</v>
@@ -995,13 +1024,13 @@
         <v>23</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1018,13 +1047,13 @@
         <v>23</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1035,16 +1064,16 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>20</v>
@@ -1058,19 +1087,19 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>2</v>
@@ -1081,19 +1110,19 @@
         <v>47</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C23" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E23" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>2</v>
@@ -1104,16 +1133,16 @@
         <v>48</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>2</v>
@@ -1156,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -1179,13 +1208,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -1196,16 +1225,16 @@
         <v>52</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>20</v>
@@ -1219,19 +1248,19 @@
         <v>53</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>2</v>
@@ -1242,19 +1271,19 @@
         <v>54</v>
       </c>
       <c r="B30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E30" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>2</v>
@@ -1265,16 +1294,16 @@
         <v>55</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>2</v>
@@ -1311,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s" s="3">
         <v>23</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>2</v>
@@ -1334,81 +1363,52 @@
         <v>58</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>23</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="E40" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="E42" t="s" s="12">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s" s="13">
         <v>2</v>
       </c>
       <c r="E43" t="s" s="12">
@@ -1416,19 +1416,1835 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="9">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s" s="8">
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
         <v>63</v>
       </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="10">
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
+    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
+    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
+    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
+    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
+    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
+    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
+    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
+    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
+    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
+    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
+    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
+    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
+    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
+    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
+    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
+    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
+    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
+    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
         <v>2</v>
       </c>
     </row>

--- a/dist/Folha gerada.xlsx
+++ b/dist/Folha gerada.xlsx
@@ -8,18 +8,17 @@
   <sheets>
     <sheet name="1" r:id="rId3" sheetId="1"/>
     <sheet name="2" r:id="rId4" sheetId="2"/>
-    <sheet name="3" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="72">
   <si>
     <t>Colaborador</t>
   </si>
   <si>
-    <t>FELYPE AURÉLIO GANZERT</t>
+    <t>BRUNO</t>
   </si>
   <si>
     <t/>
@@ -28,7 +27,7 @@
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>fevereiro/2020</t>
+    <t>setembro/2020</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -55,190 +54,181 @@
     <t>01</t>
   </si>
   <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>feriado</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
+    <t>13:30 às 17:30</t>
+  </si>
+  <si>
+    <t>18:00 às 21:30</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>c08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>sábado</t>
   </si>
   <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>13:30 às 18:30</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>c08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Faltas:</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>Observações:</t>
+  </si>
+  <si>
+    <t>Assinatura do colaborador</t>
+  </si>
+  <si>
+    <t>________________________________________</t>
+  </si>
+  <si>
+    <t>Assinatura secretária</t>
+  </si>
+  <si>
+    <t>Assinatura direção</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>08:30 às 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>08:00 às 12:00</t>
   </si>
   <si>
-    <t>13:30 às 18:00</t>
-  </si>
-  <si>
-    <t>18:030 às 21:30</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>feriado</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
-    <t>folga</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>terça</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>quarta</t>
-  </si>
-  <si>
-    <t>08:00 às 13:00</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>quinta</t>
-  </si>
-  <si>
-    <t>13:30 às 17:30</t>
-  </si>
-  <si>
-    <t>18:00 às 21:30</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>sexta</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Faltas:</t>
-  </si>
-  <si>
-    <t>_____________</t>
-  </si>
-  <si>
-    <t>Observações:</t>
-  </si>
-  <si>
-    <t>Assinatura do colaborador</t>
-  </si>
-  <si>
-    <t>________________________________________</t>
-  </si>
-  <si>
-    <t>Assinatura secretária</t>
-  </si>
-  <si>
-    <t>Assinatura direção</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>c08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>cfolga</t>
-  </si>
-  <si>
-    <t>c08:00 às 13:00</t>
-  </si>
-  <si>
-    <t>13:30 às 18:30</t>
-  </si>
-  <si>
-    <t>MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>18:00 às 21:00</t>
-  </si>
-  <si>
-    <t>08:30 às 12:00</t>
   </si>
 </sst>
 </file>
@@ -679,13 +669,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -693,22 +683,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -716,22 +706,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="D6" t="s" s="3">
         <v>22</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>23</v>
       </c>
       <c r="E6" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -745,16 +735,16 @@
         <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -762,19 +752,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>28</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -785,19 +775,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -808,22 +798,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -831,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
@@ -840,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -854,22 +844,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -877,22 +867,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>22</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>23</v>
       </c>
       <c r="E13" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -900,22 +890,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -923,19 +913,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -946,19 +936,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -969,22 +959,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -992,7 +982,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
@@ -1001,13 +991,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1015,22 +1005,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1038,22 +1028,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>22</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>23</v>
       </c>
       <c r="E20" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1061,22 +1051,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1084,19 +1074,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1107,19 +1097,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -1130,22 +1120,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -1153,7 +1143,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
@@ -1162,13 +1152,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -1176,22 +1166,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -1199,22 +1189,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>22</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>23</v>
       </c>
       <c r="E27" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -1222,22 +1212,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s" s="3">
         <v>23</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -1245,19 +1235,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -1268,19 +1258,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -1291,22 +1281,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -1314,7 +1304,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
@@ -1323,13 +1313,13 @@
         <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
@@ -1337,47 +1327,24 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>2</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1400,13 +1367,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>2</v>
@@ -1425,10 +1392,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s" s="12">
         <v>2</v>
@@ -1444,10 +1411,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s" s="13">
         <v>64</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>63</v>
       </c>
       <c r="E47" t="s" s="12">
         <v>2</v>
@@ -1463,13 +1430,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>2</v>
@@ -1513,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -1561,16 +1528,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -1578,22 +1545,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -1601,22 +1568,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -1630,16 +1597,16 @@
         <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -1647,19 +1614,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="D8" t="s" s="3">
-        <v>23</v>
-      </c>
       <c r="E8" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -1670,19 +1637,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -1693,22 +1660,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -1716,22 +1683,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -1739,19 +1706,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>2</v>
@@ -1762,22 +1729,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -1785,22 +1752,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -1808,19 +1775,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>23</v>
-      </c>
       <c r="E15" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -1831,19 +1798,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -1854,22 +1821,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -1877,22 +1844,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1900,19 +1867,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>2</v>
@@ -1923,22 +1890,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1946,22 +1913,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1969,19 +1936,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>23</v>
-      </c>
       <c r="E22" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1992,19 +1959,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -2015,22 +1982,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -2038,22 +2005,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2061,19 +2028,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>2</v>
@@ -2084,22 +2051,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2107,22 +2074,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -2130,19 +2097,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="D29" t="s" s="3">
-        <v>23</v>
-      </c>
       <c r="E29" t="s" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -2153,19 +2120,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -2176,22 +2143,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -2199,22 +2166,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
@@ -2222,47 +2189,24 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>2</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2285,13 +2229,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>2</v>
@@ -2310,10 +2254,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s" s="12">
         <v>2</v>
@@ -2329,10 +2273,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s" s="13">
         <v>64</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>63</v>
       </c>
       <c r="E47" t="s" s="12">
         <v>2</v>
@@ -2348,898 +2292,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s" s="10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
-    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
-    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
-    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
-    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
-    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
-    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
-    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
-    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s" s="13">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="11">
         <v>64</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s" s="8">
-        <v>63</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>2</v>
